--- a/DesignerConfigs/Datas/LevelAct.xlsx
+++ b/DesignerConfigs/Datas/LevelAct.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,30 +77,6 @@
           </rPr>
           <t>起始坐标：
 左下角</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-起始坐标：
-左下角
-</t>
         </r>
       </text>
     </comment>
@@ -156,6 +132,30 @@
       <text>
         <r>
           <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+起始坐标：
+左下角
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
@@ -164,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -224,6 +224,9 @@
     <t>FixedGridMap</t>
   </si>
   <si>
+    <t>EmptyGridMap</t>
+  </si>
+  <si>
     <t>HiddleGood_Move</t>
   </si>
   <si>
@@ -327,6 +330,9 @@
   </si>
   <si>
     <t>4,6</t>
+  </si>
+  <si>
+    <t>1_1:1,2_2:2</t>
   </si>
   <si>
     <t>8,12</t>
@@ -502,12 +508,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1539,14 +1545,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1558,19 +1564,20 @@
     <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="12.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="25.5" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="31.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="12.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="25.5" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1620,133 +1627,142 @@
       <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>30</v>
@@ -1775,13 +1791,16 @@
       <c r="Q4" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="R4" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="5" ht="54" spans="2:16">
+    <row r="5" ht="54" spans="2:17">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1796,24 +1815,25 @@
         <v>0</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I5" s="4"/>
       <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
         <v>10</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>1.25</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:17">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -1825,22 +1845,25 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="1">
-        <v>1</v>
+      <c r="I6" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
         <v>20</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:17">
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1852,22 +1875,22 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
       <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
         <v>40</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:17">
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1879,22 +1902,22 @@
       <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
       <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
         <v>60</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:17">
       <c r="B9" s="1">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1906,22 +1929,22 @@
       <c r="G9" s="1">
         <v>3</v>
       </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
       <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
         <v>80</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:17">
       <c r="B10" s="1">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1933,22 +1956,22 @@
       <c r="G10" s="1">
         <v>4</v>
       </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
       <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
         <v>100</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:17">
       <c r="B11" s="1">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1960,22 +1983,22 @@
       <c r="G11" s="1">
         <v>5</v>
       </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
       <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
         <v>120</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:17">
       <c r="B12" s="1">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1987,22 +2010,22 @@
       <c r="G12" s="1">
         <v>6</v>
       </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
       <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
         <v>140</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:17">
       <c r="B13" s="1">
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -2014,22 +2037,22 @@
       <c r="G13" s="1">
         <v>7</v>
       </c>
-      <c r="N13" s="1">
-        <v>1</v>
-      </c>
       <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
         <v>160</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:17">
       <c r="B14" s="1">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -2041,22 +2064,22 @@
       <c r="G14" s="1">
         <v>8</v>
       </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
       <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>180</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:17">
       <c r="B15" s="1">
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -2070,22 +2093,23 @@
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
+      <c r="K15" s="4"/>
       <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
         <v>190</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:17">
       <c r="B16" s="1">
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -2098,22 +2122,23 @@
         <v>0</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
+      <c r="J16" s="4"/>
       <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
         <v>200</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:17">
       <c r="B17" s="1">
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E17" s="3">
         <v>20</v>
@@ -2122,22 +2147,22 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
       <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
         <v>140</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:17">
       <c r="B18" s="1">
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E18" s="3">
         <v>20</v>
@@ -2146,22 +2171,22 @@
       <c r="G18" s="1">
         <v>2</v>
       </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
       <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
         <v>160</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:17">
       <c r="B19" s="1">
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E19" s="3">
         <v>18</v>
@@ -2170,22 +2195,22 @@
       <c r="G19" s="1">
         <v>3</v>
       </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
       <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
         <v>180</v>
       </c>
-      <c r="P19" s="1">
+      <c r="Q19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:17">
       <c r="B20" s="1">
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E20" s="3">
         <v>28</v>
@@ -2194,22 +2219,22 @@
       <c r="G20" s="1">
         <v>4</v>
       </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
       <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
         <v>190</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:17">
       <c r="B21" s="1">
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E21" s="3">
         <v>20</v>
@@ -2218,22 +2243,22 @@
       <c r="G21" s="1">
         <v>5</v>
       </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
       <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
         <v>200</v>
       </c>
-      <c r="P21" s="1">
+      <c r="Q21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:17">
       <c r="B22" s="1">
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E22" s="3">
         <v>20</v>
@@ -2242,22 +2267,22 @@
       <c r="G22" s="1">
         <v>6</v>
       </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
       <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
         <v>140</v>
       </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="2:16">
+    <row r="23" ht="14.25" spans="2:17">
       <c r="B23" s="1">
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E23" s="5">
         <v>22</v>
@@ -2266,19 +2291,19 @@
       <c r="G23" s="1">
         <v>7</v>
       </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
       <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
         <v>160</v>
       </c>
-      <c r="P23" s="1">
+      <c r="Q23" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 D1048575:D1048576 G16:G23 G5:H15"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 D1048575:D1048576 G16:G23 I5:I14 G5:H15"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/DesignerConfigs/Datas/LevelAct.xlsx
+++ b/DesignerConfigs/Datas/LevelAct.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11775"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -332,10 +332,13 @@
     <t>4,6</t>
   </si>
   <si>
-    <t>1_1:1,2_2:2</t>
+    <t>2_2:0,3_2:0,4_2:0,,5_2:0,2_3:0,3_3:0,4_3:0,5_3:0</t>
   </si>
   <si>
     <t>8,12</t>
+  </si>
+  <si>
+    <t>1_1:0,2_2:0,3_2:0,3_3:0,3_4:0</t>
   </si>
 </sst>
 </file>
@@ -508,12 +511,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -993,24 +996,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1552,7 +1558,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1564,7 +1570,7 @@
     <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="2" customWidth="1"/>
     <col min="10" max="10" width="20.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="22.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="18.125" style="1" customWidth="1"/>
@@ -1578,220 +1584,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="27" spans="1:18">
+      <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1805,19 +1811,19 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>6</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="2"/>
       <c r="O5" s="1">
         <v>1</v>
       </c>
@@ -1828,7 +1834,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" ht="27" spans="2:17">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -1838,14 +1844,14 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>6</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="O6" s="1">
@@ -1868,12 +1874,15 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>8</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="1">
         <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="O7" s="1">
         <v>0</v>
@@ -1895,12 +1904,15 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="1">
         <v>2</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
@@ -1922,12 +1934,15 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>12</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="1">
         <v>3</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
@@ -1949,10 +1964,10 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>18</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="1">
         <v>4</v>
       </c>
@@ -1976,10 +1991,10 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>22</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="1">
         <v>5</v>
       </c>
@@ -2003,10 +2018,10 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>26</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="1">
         <v>6</v>
       </c>
@@ -2030,10 +2045,10 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>30</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="1">
         <v>7</v>
       </c>
@@ -2057,10 +2072,10 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>22</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="1">
         <v>8</v>
       </c>
@@ -2084,16 +2099,15 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>22</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
       <c r="O15" s="1">
         <v>0</v>
       </c>
@@ -2114,15 +2128,14 @@
       <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>22</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="1">
         <v>0</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="J16" s="2"/>
       <c r="O16" s="1">
         <v>0</v>
       </c>
@@ -2140,10 +2153,10 @@
       <c r="C17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <v>20</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="1">
         <v>1</v>
       </c>
@@ -2164,10 +2177,10 @@
       <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>20</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="1">
         <v>2</v>
       </c>
@@ -2188,10 +2201,10 @@
       <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>18</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="1">
         <v>3</v>
       </c>
@@ -2212,10 +2225,10 @@
       <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>28</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="1">
         <v>4</v>
       </c>
@@ -2236,10 +2249,10 @@
       <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>20</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="1">
         <v>5</v>
       </c>
@@ -2260,10 +2273,10 @@
       <c r="C22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="4">
         <v>20</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="1">
         <v>6</v>
       </c>
@@ -2277,7 +2290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="2:17">
+    <row r="23" spans="2:17">
       <c r="B23" s="1">
         <v>19</v>
       </c>
@@ -2287,7 +2300,7 @@
       <c r="E23" s="5">
         <v>22</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="1">
         <v>7</v>
       </c>

--- a/DesignerConfigs/Datas/LevelAct.xlsx
+++ b/DesignerConfigs/Datas/LevelAct.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11775"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -326,7 +326,7 @@
     <t>4,4</t>
   </si>
   <si>
-    <t>1_1:1,1_2:2,1_3:3,1_4:4,3_1:5,3_2:1,3_3:6,3_4:2,4_1:6,4_2:3,4_3:4,4_4:5</t>
+    <t>1_1:0,1_2:1,1_3:2,1_4:3,3_1:4,3_2:0,3_3:5,3_4:1,4_1:5,4_2:2,4_3:3,4_4:4</t>
   </si>
   <si>
     <t>4,6</t>
@@ -508,12 +508,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1552,7 +1552,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/DesignerConfigs/Datas/LevelAct.xlsx
+++ b/DesignerConfigs/Datas/LevelAct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -326,7 +326,7 @@
     <t>4,4</t>
   </si>
   <si>
-    <t>1_1:1,1_2:2,1_3:3,1_4:4,3_1:5,3_2:1,3_3:6,3_4:2,4_1:6,4_2:3,4_3:4,4_4:5</t>
+    <t>1_1:0,1_2:1,1_3:2,1_4:3,3_1:4,3_2:0,3_3:5,3_4:1,4_1:5,4_2:2,4_3:3,4_4:4</t>
   </si>
   <si>
     <t>4,6</t>
@@ -1558,7 +1558,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1823,7 +1823,6 @@
       <c r="H5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="2"/>
       <c r="O5" s="1">
         <v>1</v>
       </c>
@@ -2290,7 +2289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23" ht="14.25" spans="2:17">
       <c r="B23" s="1">
         <v>19</v>
       </c>

--- a/DesignerConfigs/Datas/LevelAct.xlsx
+++ b/DesignerConfigs/Datas/LevelAct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -326,7 +326,7 @@
     <t>4,4</t>
   </si>
   <si>
-    <t>1_1:0,1_2:1,1_3:2,1_4:3,3_1:4,3_2:0,3_3:5,3_4:1,4_1:5,4_2:2,4_3:3,4_4:4</t>
+    <t>1_1:4,1_3:1,1_4:2,3_1:0,3_3:5,3_4:5,4_1:1,4_3:4,4_4:3,5_1:0,5_3:2,5_4:3</t>
   </si>
   <si>
     <t>4,6</t>
@@ -1558,7 +1558,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/DesignerConfigs/Datas/LevelAct.xlsx
+++ b/DesignerConfigs/Datas/LevelAct.xlsx
@@ -326,7 +326,7 @@
     <t>4,4</t>
   </si>
   <si>
-    <t>1_1:4,1_3:1,1_4:2,3_1:0,3_3:5,3_4:5,4_1:1,4_3:4,4_4:3,5_1:0,5_3:2,5_4:3</t>
+    <t>1_1:4,1_3:5,1_4:2,3_1:0,3_3:1,3_4:5,4_1:1,4_3:4,4_4:3,5_1:0,5_3:2,5_4:3</t>
   </si>
   <si>
     <t>4,6</t>
@@ -1558,7 +1558,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/DesignerConfigs/Datas/LevelAct.xlsx
+++ b/DesignerConfigs/Datas/LevelAct.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>

--- a/DesignerConfigs/Datas/LevelAct.xlsx
+++ b/DesignerConfigs/Datas/LevelAct.xlsx
@@ -323,7 +323,7 @@
     <t>工具物体的位置和种类</t>
   </si>
   <si>
-    <t>4,4</t>
+    <t>4,5</t>
   </si>
   <si>
     <t>1_1:4,1_3:5,1_4:2,3_1:0,3_3:1,3_4:5,4_1:1,4_3:4,4_4:3,5_1:0,5_3:2,5_4:3</t>
@@ -1558,7 +1558,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/DesignerConfigs/Datas/LevelAct.xlsx
+++ b/DesignerConfigs/Datas/LevelAct.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11775"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -335,10 +335,16 @@
     <t>2_2:0,3_2:0,4_2:0,,5_2:0,2_3:0,3_3:0,4_3:0,5_3:0</t>
   </si>
   <si>
+    <t>6,10</t>
+  </si>
+  <si>
+    <t>2_2:0,2_3:0,2_4:0,2_5:0,3_2:0,3_3:0,3_4:0,3_5:0,5_2:0,5_3:0,5_4:0,5_5:0,6_2:0,6_3:0,6_4:0,6_5:0,8_2:0,8_3:0,8_4:0,8_5:0,9_2:0,9_3:0,9_4:0,9_5:0</t>
+  </si>
+  <si>
     <t>8,12</t>
   </si>
   <si>
-    <t>1_1:0,2_2:0,3_2:0,3_3:0,3_4:0</t>
+    <t>2_3:0,2_4:0,2_5:0,2_6:0,3_2:0,3_3:0,3_6:0,3_7:0,4_2:0,4_3:0,4_6:0,4_7:0,5_2:0,5_7:0,6_2:0,6_7:0,7_2:0,7_7:0,8_2:0,8_7:0,9_2:0,9_3:0,9_6:0,9_7:0,10_2:0,10_3:0,10_6:0,10_7:0,11_3:0,11_4:0,11_5:0,11_6:0</t>
   </si>
 </sst>
 </file>
@@ -1558,7 +1564,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1863,7 +1869,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" ht="67.5" spans="2:17">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -1874,11 +1880,11 @@
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>45</v>
@@ -1893,12 +1899,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" ht="94.5" spans="2:17">
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1908,10 +1914,10 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
@@ -1928,7 +1934,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1938,10 +1944,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="1">
-        <v>3</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
@@ -1958,7 +1961,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1968,7 +1971,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O10" s="1">
         <v>0</v>
@@ -1985,7 +1988,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1995,7 +1998,7 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O11" s="1">
         <v>0</v>
@@ -2012,7 +2015,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -2022,7 +2025,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O12" s="1">
         <v>0</v>
@@ -2039,7 +2042,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -2049,7 +2052,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
@@ -2066,7 +2069,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -2076,7 +2079,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
@@ -2093,7 +2096,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -2103,7 +2106,7 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -2122,7 +2125,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -2132,7 +2135,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J16" s="2"/>
       <c r="O16" s="1">
@@ -2150,7 +2153,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
       </c>
       <c r="E17" s="4">
         <v>20</v>
@@ -2174,7 +2180,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
       </c>
       <c r="E18" s="4">
         <v>20</v>
@@ -2198,7 +2207,10 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
       </c>
       <c r="E19" s="4">
         <v>18</v>
@@ -2222,7 +2234,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
       </c>
       <c r="E20" s="4">
         <v>28</v>
@@ -2246,7 +2261,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
       </c>
       <c r="E21" s="4">
         <v>20</v>
@@ -2270,7 +2288,10 @@
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
       </c>
       <c r="E22" s="4">
         <v>20</v>
@@ -2289,12 +2310,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="2:17">
+    <row r="23" spans="2:17">
       <c r="B23" s="1">
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
       </c>
       <c r="E23" s="5">
         <v>22</v>
@@ -2315,7 +2339,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 D1048575:D1048576 G16:G23 I5:I14 G5:H15"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9 H16 D1048575:D1048576 G9:G16 G17:G23 H10:H15 I5:I14 G5:H8"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/DesignerConfigs/Datas/LevelAct.xlsx
+++ b/DesignerConfigs/Datas/LevelAct.xlsx
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -722,7 +722,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -749,8 +749,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.15"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.15"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,7 +889,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -890,34 +901,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,7 +1013,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1019,6 +1030,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1557,14 +1571,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1612,7 +1626,7 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -1666,7 +1680,7 @@
       <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -1720,7 +1734,7 @@
       <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -1776,7 +1790,7 @@
       <c r="H4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -1944,13 +1958,13 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O9" s="1">
         <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="1">
         <v>1</v>
@@ -1967,17 +1981,17 @@
         <v>0</v>
       </c>
       <c r="E10" s="4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O10" s="1">
         <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="1">
         <v>1</v>
@@ -1994,17 +2008,17 @@
         <v>0</v>
       </c>
       <c r="E11" s="4">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O11" s="1">
         <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="1">
         <v>1</v>
@@ -2021,17 +2035,17 @@
         <v>0</v>
       </c>
       <c r="E12" s="4">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O12" s="1">
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="Q12" s="1">
         <v>1</v>
@@ -2048,17 +2062,17 @@
         <v>0</v>
       </c>
       <c r="E13" s="4">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" s="1">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="1">
         <v>1</v>
@@ -2075,17 +2089,17 @@
         <v>0</v>
       </c>
       <c r="E14" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="1">
         <v>1</v>
@@ -2106,7 +2120,7 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -2114,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="1">
         <v>1</v>
@@ -2131,18 +2145,18 @@
         <v>0</v>
       </c>
       <c r="E16" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2"/>
       <c r="O16" s="1">
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="Q16" s="1">
         <v>1</v>
@@ -2159,17 +2173,17 @@
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="1">
         <v>1</v>
       </c>
       <c r="O17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P17" s="1">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="1">
         <v>1</v>
@@ -2186,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="1">
@@ -2196,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="Q18" s="1">
         <v>1</v>
@@ -2213,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="1">
@@ -2223,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="Q19" s="1">
         <v>1</v>
@@ -2240,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="4">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="1">
@@ -2250,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="1">
         <v>1</v>
@@ -2267,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="1">
@@ -2277,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="1">
         <v>1</v>
@@ -2293,7 +2307,7 @@
       <c r="D22" s="1">
         <v>0</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
         <v>20</v>
       </c>
       <c r="F22" s="4"/>
@@ -2304,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="Q22" s="1">
         <v>1</v>
@@ -2320,26 +2334,1820 @@
       <c r="D23" s="1">
         <v>0</v>
       </c>
-      <c r="E23" s="5">
-        <v>22</v>
+      <c r="E23" s="6">
+        <v>24</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="1">
         <v>7</v>
       </c>
       <c r="O23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23" s="1">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="1">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>20</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="1">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>24</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" s="1">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>20</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27" s="1">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>22</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="B28" s="1">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>20</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="1">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>20</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="B30" s="1">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>24</v>
+      </c>
+      <c r="G30" s="1">
+        <v>5</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="B31" s="1">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>22</v>
+      </c>
+      <c r="G31" s="1">
+        <v>6</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17">
+      <c r="B32" s="1">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>20</v>
+      </c>
+      <c r="G32" s="1">
+        <v>7</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="B33" s="1">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>22</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" s="1">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>24</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" s="1">
+        <v>31</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>22</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="B36" s="1">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>20</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" s="1">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>22</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" s="1">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>24</v>
+      </c>
+      <c r="G38" s="1">
+        <v>4</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="B39" s="1">
+        <v>35</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>22</v>
+      </c>
+      <c r="G39" s="1">
+        <v>5</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="B40" s="1">
+        <v>36</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>20</v>
+      </c>
+      <c r="G40" s="1">
+        <v>6</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="B41" s="1">
+        <v>37</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
+        <v>22</v>
+      </c>
+      <c r="G41" s="1">
+        <v>7</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="B42" s="1">
+        <v>38</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
+        <v>24</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="B43" s="1">
+        <v>39</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
+        <v>22</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="B44" s="1">
+        <v>40</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
+        <v>20</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="B45" s="1">
+        <v>41</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>22</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0</v>
+      </c>
+      <c r="P45" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="B46" s="1">
+        <v>42</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
+        <v>24</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0</v>
+      </c>
+      <c r="P46" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" s="1">
+        <v>43</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
+        <v>22</v>
+      </c>
+      <c r="G47" s="1">
+        <v>4</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0</v>
+      </c>
+      <c r="P47" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" s="1">
+        <v>44</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
+        <v>20</v>
+      </c>
+      <c r="G48" s="1">
+        <v>5</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17">
+      <c r="B49" s="1">
+        <v>45</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
+        <v>22</v>
+      </c>
+      <c r="G49" s="1">
+        <v>6</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0</v>
+      </c>
+      <c r="P49" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17">
+      <c r="B50" s="1">
+        <v>46</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
+        <v>24</v>
+      </c>
+      <c r="G50" s="1">
+        <v>7</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0</v>
+      </c>
+      <c r="P50" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17">
+      <c r="B51" s="1">
+        <v>47</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
+        <v>22</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0</v>
+      </c>
+      <c r="P51" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17">
+      <c r="B52" s="1">
+        <v>48</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
+        <v>20</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0</v>
+      </c>
+      <c r="P52" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17">
+      <c r="B53" s="1">
+        <v>49</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6">
+        <v>22</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="O53" s="1">
+        <v>0</v>
+      </c>
+      <c r="P53" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17">
+      <c r="B54" s="1">
+        <v>50</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>24</v>
+      </c>
+      <c r="G54" s="1">
+        <v>2</v>
+      </c>
+      <c r="O54" s="1">
+        <v>0</v>
+      </c>
+      <c r="P54" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17">
+      <c r="B55" s="1">
+        <v>51</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="6">
+        <v>20</v>
+      </c>
+      <c r="G55" s="1">
+        <v>3</v>
+      </c>
+      <c r="O55" s="1">
+        <v>0</v>
+      </c>
+      <c r="P55" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17">
+      <c r="B56" s="1">
+        <v>52</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>22</v>
+      </c>
+      <c r="G56" s="1">
+        <v>4</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0</v>
+      </c>
+      <c r="P56" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17">
+      <c r="B57" s="1">
+        <v>53</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
+        <v>24</v>
+      </c>
+      <c r="G57" s="1">
+        <v>5</v>
+      </c>
+      <c r="O57" s="1">
+        <v>0</v>
+      </c>
+      <c r="P57" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17">
+      <c r="B58" s="1">
+        <v>54</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
+        <v>22</v>
+      </c>
+      <c r="G58" s="1">
+        <v>6</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0</v>
+      </c>
+      <c r="P58" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17">
+      <c r="B59" s="1">
+        <v>55</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <v>20</v>
+      </c>
+      <c r="G59" s="1">
+        <v>7</v>
+      </c>
+      <c r="O59" s="1">
+        <v>0</v>
+      </c>
+      <c r="P59" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17">
+      <c r="B60" s="1">
+        <v>56</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6">
+        <v>22</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="O60" s="1">
+        <v>0</v>
+      </c>
+      <c r="P60" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17">
+      <c r="B61" s="1">
+        <v>57</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="6">
+        <v>24</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0</v>
+      </c>
+      <c r="P61" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17">
+      <c r="B62" s="1">
+        <v>58</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="6">
+        <v>22</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0</v>
+      </c>
+      <c r="P62" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17">
+      <c r="B63" s="1">
+        <v>59</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="6">
+        <v>20</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
+      </c>
+      <c r="P63" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17">
+      <c r="B64" s="1">
+        <v>60</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="6">
+        <v>22</v>
+      </c>
+      <c r="G64" s="1">
+        <v>3</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0</v>
+      </c>
+      <c r="P64" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17">
+      <c r="B65" s="1">
+        <v>61</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="6">
+        <v>24</v>
+      </c>
+      <c r="G65" s="1">
+        <v>4</v>
+      </c>
+      <c r="O65" s="1">
+        <v>0</v>
+      </c>
+      <c r="P65" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17">
+      <c r="B66" s="1">
+        <v>62</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="6">
+        <v>22</v>
+      </c>
+      <c r="G66" s="1">
+        <v>5</v>
+      </c>
+      <c r="O66" s="1">
+        <v>0</v>
+      </c>
+      <c r="P66" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17">
+      <c r="B67" s="1">
+        <v>63</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="6">
+        <v>20</v>
+      </c>
+      <c r="G67" s="1">
+        <v>6</v>
+      </c>
+      <c r="O67" s="1">
+        <v>0</v>
+      </c>
+      <c r="P67" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17">
+      <c r="B68" s="1">
+        <v>64</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="6">
+        <v>22</v>
+      </c>
+      <c r="G68" s="1">
+        <v>7</v>
+      </c>
+      <c r="O68" s="1">
+        <v>0</v>
+      </c>
+      <c r="P68" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17">
+      <c r="B69" s="1">
+        <v>65</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="6">
+        <v>24</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="O69" s="1">
+        <v>0</v>
+      </c>
+      <c r="P69" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17">
+      <c r="B70" s="1">
+        <v>66</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="6">
+        <v>22</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="O70" s="1">
+        <v>0</v>
+      </c>
+      <c r="P70" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17">
+      <c r="B71" s="1">
+        <v>67</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="6">
+        <v>20</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="O71" s="1">
+        <v>0</v>
+      </c>
+      <c r="P71" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17">
+      <c r="B72" s="1">
+        <v>68</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="6">
+        <v>22</v>
+      </c>
+      <c r="G72" s="1">
+        <v>2</v>
+      </c>
+      <c r="O72" s="1">
+        <v>0</v>
+      </c>
+      <c r="P72" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17">
+      <c r="B73" s="1">
+        <v>69</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="6">
+        <v>24</v>
+      </c>
+      <c r="G73" s="1">
+        <v>3</v>
+      </c>
+      <c r="O73" s="1">
+        <v>0</v>
+      </c>
+      <c r="P73" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17">
+      <c r="B74" s="1">
+        <v>70</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="6">
+        <v>20</v>
+      </c>
+      <c r="G74" s="1">
+        <v>4</v>
+      </c>
+      <c r="O74" s="1">
+        <v>0</v>
+      </c>
+      <c r="P74" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17">
+      <c r="B75" s="1">
+        <v>71</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="6">
+        <v>22</v>
+      </c>
+      <c r="G75" s="1">
+        <v>5</v>
+      </c>
+      <c r="O75" s="1">
+        <v>0</v>
+      </c>
+      <c r="P75" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17">
+      <c r="B76" s="1">
+        <v>72</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="6">
+        <v>24</v>
+      </c>
+      <c r="G76" s="1">
+        <v>6</v>
+      </c>
+      <c r="O76" s="1">
+        <v>0</v>
+      </c>
+      <c r="P76" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17">
+      <c r="B77" s="1">
+        <v>73</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="6">
+        <v>22</v>
+      </c>
+      <c r="G77" s="1">
+        <v>7</v>
+      </c>
+      <c r="O77" s="1">
+        <v>0</v>
+      </c>
+      <c r="P77" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17">
+      <c r="B78" s="1">
+        <v>74</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="6">
+        <v>20</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="O78" s="1">
+        <v>0</v>
+      </c>
+      <c r="P78" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17">
+      <c r="B79" s="1">
+        <v>75</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="6">
+        <v>22</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="O79" s="1">
+        <v>0</v>
+      </c>
+      <c r="P79" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17">
+      <c r="B80" s="1">
+        <v>76</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="6">
+        <v>24</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1</v>
+      </c>
+      <c r="O80" s="1">
+        <v>0</v>
+      </c>
+      <c r="P80" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17">
+      <c r="B81" s="1">
+        <v>77</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="6">
+        <v>22</v>
+      </c>
+      <c r="G81" s="1">
+        <v>2</v>
+      </c>
+      <c r="O81" s="1">
+        <v>0</v>
+      </c>
+      <c r="P81" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17">
+      <c r="B82" s="1">
+        <v>78</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82" s="6">
+        <v>20</v>
+      </c>
+      <c r="G82" s="1">
+        <v>3</v>
+      </c>
+      <c r="O82" s="1">
+        <v>0</v>
+      </c>
+      <c r="P82" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:17">
+      <c r="B83" s="1">
+        <v>79</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="6">
+        <v>22</v>
+      </c>
+      <c r="G83" s="1">
+        <v>4</v>
+      </c>
+      <c r="O83" s="1">
+        <v>0</v>
+      </c>
+      <c r="P83" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:17">
+      <c r="B84" s="1">
+        <v>80</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="6">
+        <v>24</v>
+      </c>
+      <c r="G84" s="1">
+        <v>5</v>
+      </c>
+      <c r="O84" s="1">
+        <v>0</v>
+      </c>
+      <c r="P84" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:17">
+      <c r="B85" s="1">
+        <v>81</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" s="6">
+        <v>22</v>
+      </c>
+      <c r="G85" s="1">
+        <v>6</v>
+      </c>
+      <c r="O85" s="1">
+        <v>0</v>
+      </c>
+      <c r="P85" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:17">
+      <c r="B86" s="1">
+        <v>82</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+      <c r="E86" s="6">
+        <v>20</v>
+      </c>
+      <c r="G86" s="1">
+        <v>7</v>
+      </c>
+      <c r="O86" s="1">
+        <v>0</v>
+      </c>
+      <c r="P86" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:17">
+      <c r="B87" s="1">
+        <v>83</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+      <c r="E87" s="6">
+        <v>22</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="O87" s="1">
+        <v>0</v>
+      </c>
+      <c r="P87" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:17">
+      <c r="B88" s="1">
+        <v>84</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+      <c r="E88" s="6">
+        <v>24</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="O88" s="1">
+        <v>0</v>
+      </c>
+      <c r="P88" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:17">
+      <c r="B89" s="1">
+        <v>85</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0</v>
+      </c>
+      <c r="E89" s="6">
+        <v>22</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="O89" s="1">
+        <v>0</v>
+      </c>
+      <c r="P89" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17">
+      <c r="B90" s="1">
+        <v>86</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0</v>
+      </c>
+      <c r="E90" s="6">
+        <v>20</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="O90" s="1">
+        <v>0</v>
+      </c>
+      <c r="P90" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17">
+      <c r="B91" s="1">
+        <v>87</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
+      <c r="E91" s="6">
+        <v>22</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="O91" s="1">
+        <v>0</v>
+      </c>
+      <c r="P91" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17">
+      <c r="B92" s="1">
+        <v>88</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0</v>
+      </c>
+      <c r="E92" s="6">
+        <v>24</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="O92" s="1">
+        <v>0</v>
+      </c>
+      <c r="P92" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q92" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9 H16 D1048575:D1048576 G9:G16 G17:G23 H10:H15 I5:I14 G5:H8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9 H16 G24 G33 G42 G51 G60 G69 G78 G87 D1048575:D1048576 G9:G15 G16:G23 G25:G32 G34:G41 G43:G50 G52:G59 G61:G68 G70:G77 G79:G86 G88:G92 H10:H15 I5:I14 G5:H8"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
